--- a/dimensions_measures_power_pivot_demo.xlsx
+++ b/dimensions_measures_power_pivot_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533B3CFD-3395-48E1-9249-317093831BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD56358-A319-47E4-AF7A-E2188A2FB402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{963B7403-42CF-4886-B37B-AD89EC0A9FD6}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{963B7403-42CF-4886-B37B-AD89EC0A9FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,6 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -137,14 +140,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -166,16 +173,16 @@
   <autoFilter ref="A1:I19" xr:uid="{D5244208-4F97-4AA1-BA31-B034F54F0BDA}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DB7DBED0-47BD-4C71-87FE-5E6F5D65D9DE}" name="trans_id"/>
-    <tableColumn id="2" xr3:uid="{A8CFC96F-F715-4213-883B-E7E7D956BBB4}" name="trans_date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A8CFC96F-F715-4213-883B-E7E7D956BBB4}" name="trans_date" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{2AEB2C0C-8707-4F39-B5EF-13A4CB80BEE7}" name="quantity"/>
     <tableColumn id="11" xr3:uid="{6D37F60D-20D9-403A-ABAA-AEEE16002F95}" name="product_price"/>
     <tableColumn id="10" xr3:uid="{C150C036-3157-4A45-9DD8-E03D197B3394}" name="product_name"/>
     <tableColumn id="12" xr3:uid="{F2219084-6AD0-449C-A841-9948A142DDB5}" name="product_vendor"/>
     <tableColumn id="7" xr3:uid="{98DBC169-B313-4AE0-9588-B1EF8E80485E}" name="branch_name"/>
     <tableColumn id="8" xr3:uid="{6EAE018C-D2AB-4D38-9138-ED9EB001E60A}" name="branch_state"/>
-    <tableColumn id="9" xr3:uid="{4C2627B0-6636-4FA7-87A3-CE438DE81634}" name="branch_zip"/>
+    <tableColumn id="9" xr3:uid="{4C2627B0-6636-4FA7-87A3-CE438DE81634}" name="branch_zip" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -498,19 +505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE6818A-709E-4720-9581-53105B7C6D38}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.76953125" customWidth="1"/>
-    <col min="4" max="4" width="10.58984375" customWidth="1"/>
+    <col min="3" max="3" width="8.953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" customWidth="1"/>
     <col min="6" max="6" width="14.953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="13.04296875" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
@@ -570,7 +577,7 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -599,7 +606,7 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -628,7 +635,7 @@
       <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>6831</v>
       </c>
     </row>
@@ -657,7 +664,7 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>3060</v>
       </c>
     </row>
@@ -686,7 +693,7 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>6831</v>
       </c>
     </row>
@@ -715,7 +722,7 @@
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>6831</v>
       </c>
     </row>
@@ -744,7 +751,7 @@
       <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -773,7 +780,7 @@
       <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>3060</v>
       </c>
     </row>
@@ -802,7 +809,7 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>3060</v>
       </c>
     </row>
@@ -831,7 +838,7 @@
       <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -860,7 +867,7 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>6831</v>
       </c>
     </row>
@@ -889,7 +896,7 @@
       <c r="H13" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -918,7 +925,7 @@
       <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>3060</v>
       </c>
     </row>
@@ -947,7 +954,7 @@
       <c r="H15" t="s">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -976,7 +983,7 @@
       <c r="H16" t="s">
         <v>16</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>6831</v>
       </c>
     </row>
@@ -1005,7 +1012,7 @@
       <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>3060</v>
       </c>
     </row>
@@ -1034,7 +1041,7 @@
       <c r="H18" t="s">
         <v>10</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>18503</v>
       </c>
     </row>
@@ -1063,7 +1070,7 @@
       <c r="H19" t="s">
         <v>16</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>6831</v>
       </c>
     </row>
